--- a/shared/ojb-resources-common/src/main/resources/ssp/Custody_Search_Request/artifacts/service_model/information_model/IEPD/documentation/Mapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Custody_Search_Request/artifacts/service_model/information_model/IEPD/documentation/Mapping.xlsx
@@ -198,12 +198,6 @@
     <t>cs-req-doc:CustodySearchRequest/nc:Person/nc:PersonSSNIdentification/nc:IdentificationID</t>
   </si>
   <si>
-    <t>cs-req-doc:CustodySearchRequest/nc:Person/j:PersonAugmentation/j:DriverLicense/j:DriverLicenseCardIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>cs-req-doc:CustodySearchRequest/nc:Person/j:PersonAugmentation/j:DriverLicense/j:DriverLicenseCardIdentification/nc:IdentificationSourceText</t>
-  </si>
-  <si>
     <t>cs-req-doc:CustodySearchRequest/nc:Person/j:PersonAugmentation/j:PersonStateFingerprintIdentification/nc:IdentificationID</t>
   </si>
   <si>
@@ -250,6 +244,12 @@
   </si>
   <si>
     <t>Person Record ID</t>
+  </si>
+  <si>
+    <t>cs-req-doc:CustodySearchRequest/nc:Person/j:PersonAugmentation/j:DriverLicense/j:DriverLicenseIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>cs-req-doc:CustodySearchRequest/nc:Person/j:PersonAugmentation/j:DriverLicense/j:DriverLicenseIdentification/nc:IdentificationSourceText</t>
   </si>
 </sst>
 </file>
@@ -2266,8 +2266,8 @@
   <dimension ref="A1:C253"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2419,7 +2419,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="45">
@@ -2427,7 +2427,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="45">
@@ -2435,15 +2435,15 @@
         <v>21</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30">
@@ -2451,7 +2451,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2467,7 +2467,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2475,7 +2475,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2483,7 +2483,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="45">
@@ -2491,7 +2491,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="45">
@@ -2499,7 +2499,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="45">
@@ -2507,7 +2507,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="45">
@@ -2515,7 +2515,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2535,7 +2535,7 @@
         <v>30</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2543,7 +2543,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2551,7 +2551,7 @@
         <v>32</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2559,7 +2559,7 @@
         <v>33</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:3">
